--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-practitioner.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-practitioner.xlsx
@@ -387,7 +387,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>SHC_Identifier</t>
+    <t>shcIdentifier</t>
   </si>
   <si>
     <t>Practitioner.identifier.id</t>
@@ -1085,7 +1085,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
